--- a/runs/run741/NotionalETEOutput741.xlsx
+++ b/runs/run741/NotionalETEOutput741.xlsx
@@ -49,13 +49,13 @@
     <t>tUp</t>
   </si>
   <si>
-    <t>Missile_HIGHWIND2_State_Update</t>
+    <t>Missile_ANGERMAX1_State_Update</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2_114.MISSILE_HIGHWIND2_114</t>
+    <t>MISSILE_ANGERMAX1_499.MISSILE_ANGERMAX1_499</t>
   </si>
   <si>
-    <t>MISSILE_HIGHWIND2</t>
+    <t>MISSILE_ANGERMAX1</t>
   </si>
 </sst>
 </file>
@@ -480,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>-1517.025769439919</v>
+        <v>-1548.650688146277</v>
       </c>
       <c r="J2">
-        <v>2092.722193330474</v>
+        <v>2018.735540544918</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -515,13 +515,13 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>-1463.374836506393</v>
+        <v>-1430.919197030425</v>
       </c>
       <c r="J3">
-        <v>1903.700134353935</v>
+        <v>1857.446689585297</v>
       </c>
       <c r="K3">
-        <v>301.0094819257606</v>
+        <v>304.5684505462259</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -550,13 +550,13 @@
         <v>0</v>
       </c>
       <c r="I4">
-        <v>-1406.162419628635</v>
+        <v>-1415.631000507105</v>
       </c>
       <c r="J4">
-        <v>1955.822471230078</v>
+        <v>1930.386325920494</v>
       </c>
       <c r="K4">
-        <v>589.1367457715356</v>
+        <v>619.3842198458176</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -585,13 +585,13 @@
         <v>0</v>
       </c>
       <c r="I5">
-        <v>-1444.480461924569</v>
+        <v>-1355.055788627442</v>
       </c>
       <c r="J5">
-        <v>1782.08017030686</v>
+        <v>1829.751798341866</v>
       </c>
       <c r="K5">
-        <v>847.6976817917499</v>
+        <v>827.1034726578911</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -620,13 +620,13 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>-1313.430881442919</v>
+        <v>-1334.107050910696</v>
       </c>
       <c r="J6">
-        <v>1804.875911820209</v>
+        <v>1870.868997599776</v>
       </c>
       <c r="K6">
-        <v>1143.032516356368</v>
+        <v>1112.008534727325</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -655,13 +655,13 @@
         <v>0</v>
       </c>
       <c r="I7">
-        <v>-1290.607156935693</v>
+        <v>-1335.969635451027</v>
       </c>
       <c r="J7">
-        <v>1737.716175637411</v>
+        <v>1796.709907021448</v>
       </c>
       <c r="K7">
-        <v>1353.948256314031</v>
+        <v>1321.142677448905</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -690,13 +690,13 @@
         <v>0</v>
       </c>
       <c r="I8">
-        <v>-1298.077058506659</v>
+        <v>-1250.14352575146</v>
       </c>
       <c r="J8">
-        <v>1695.66845822855</v>
+        <v>1712.015252250575</v>
       </c>
       <c r="K8">
-        <v>1556.165170798533</v>
+        <v>1551.252089687061</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -719,19 +719,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>-99.10841512664005</v>
+        <v>-99.03882598749621</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>-1235.559561831625</v>
+        <v>-1338.687116291571</v>
       </c>
       <c r="J9">
-        <v>1636.944698409252</v>
+        <v>1588.061508596335</v>
       </c>
       <c r="K9">
-        <v>1843.44634263079</v>
+        <v>1754.546635993264</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -751,22 +751,22 @@
         <v>160.142</v>
       </c>
       <c r="F10">
-        <v>208.2920659189415</v>
+        <v>222.4545254995018</v>
       </c>
       <c r="G10">
-        <v>-81.75881182764353</v>
+        <v>-82.09493041864317</v>
       </c>
       <c r="H10">
-        <v>819.6727226295957</v>
+        <v>837.2796237101027</v>
       </c>
       <c r="I10">
-        <v>-1211.327553820768</v>
+        <v>-1298.768659121009</v>
       </c>
       <c r="J10">
-        <v>1661.706462850663</v>
+        <v>1569.553256162322</v>
       </c>
       <c r="K10">
-        <v>2019.74773301215</v>
+        <v>1962.849096503873</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -786,22 +786,22 @@
         <v>161.142</v>
       </c>
       <c r="F11">
-        <v>172.5619019502534</v>
+        <v>166.2037935615941</v>
       </c>
       <c r="G11">
-        <v>-65.89543983289721</v>
+        <v>-70.07815055403518</v>
       </c>
       <c r="H11">
-        <v>1007.625478699635</v>
+        <v>1006.962634826174</v>
       </c>
       <c r="I11">
-        <v>-1159.141977373212</v>
+        <v>-1202.128696859103</v>
       </c>
       <c r="J11">
-        <v>1538.073526710141</v>
+        <v>1575.409662826222</v>
       </c>
       <c r="K11">
-        <v>2233.954462752242</v>
+        <v>2205.652567219071</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -821,22 +821,22 @@
         <v>162.142</v>
       </c>
       <c r="F12">
-        <v>140.5090538366518</v>
+        <v>141.4819085981773</v>
       </c>
       <c r="G12">
-        <v>-50.65543071833607</v>
+        <v>-50.69851777374946</v>
       </c>
       <c r="H12">
-        <v>1216.889416203547</v>
+        <v>1122.995452604964</v>
       </c>
       <c r="I12">
-        <v>-1214.484227456245</v>
+        <v>-1143.917702125054</v>
       </c>
       <c r="J12">
-        <v>1446.986771165307</v>
+        <v>1577.723721774764</v>
       </c>
       <c r="K12">
-        <v>2249.170852217063</v>
+        <v>2414.396960510251</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -856,22 +856,22 @@
         <v>163.142</v>
       </c>
       <c r="F13">
-        <v>124.2605174566468</v>
+        <v>124.4383191238362</v>
       </c>
       <c r="G13">
-        <v>-33.55283136618351</v>
+        <v>-34.56226005703936</v>
       </c>
       <c r="H13">
-        <v>1256.476641139409</v>
+        <v>1246.700882248555</v>
       </c>
       <c r="I13">
-        <v>-1177.982897454987</v>
+        <v>-1113.887202905688</v>
       </c>
       <c r="J13">
-        <v>1494.271095176667</v>
+        <v>1508.201422349392</v>
       </c>
       <c r="K13">
-        <v>2414.284467103949</v>
+        <v>2403.280032737308</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -891,22 +891,22 @@
         <v>164.142</v>
       </c>
       <c r="F14">
-        <v>109.0212673322666</v>
+        <v>111.7406618143927</v>
       </c>
       <c r="G14">
-        <v>-17.96431790953151</v>
+        <v>-17.84866384655122</v>
       </c>
       <c r="H14">
-        <v>1292.130014927974</v>
+        <v>1347.529741551348</v>
       </c>
       <c r="I14">
-        <v>-1121.750738211712</v>
+        <v>-1120.823328411239</v>
       </c>
       <c r="J14">
-        <v>1412.189130110542</v>
+        <v>1454.476822931631</v>
       </c>
       <c r="K14">
-        <v>2613.656517860095</v>
+        <v>2526.317385173883</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -926,22 +926,22 @@
         <v>165.142</v>
       </c>
       <c r="F15">
-        <v>95.24008338004823</v>
+        <v>100.6843112672365</v>
       </c>
       <c r="G15">
-        <v>-0.8903010115201004</v>
+        <v>-0.9088711234239419</v>
       </c>
       <c r="H15">
-        <v>1380.137818971418</v>
+        <v>1443.481018945783</v>
       </c>
       <c r="I15">
-        <v>-1073.846435641501</v>
+        <v>-1068.582268486795</v>
       </c>
       <c r="J15">
-        <v>1411.500082055245</v>
+        <v>1422.021873738153</v>
       </c>
       <c r="K15">
-        <v>2876.886841216992</v>
+        <v>2871.737503244193</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -961,22 +961,22 @@
         <v>166.142</v>
       </c>
       <c r="F16">
-        <v>97.07038781355031</v>
+        <v>88.83928432962456</v>
       </c>
       <c r="G16">
-        <v>14.97722323704823</v>
+        <v>15.23251674421445</v>
       </c>
       <c r="H16">
-        <v>1370.215861165957</v>
+        <v>1399.416085133893</v>
       </c>
       <c r="I16">
-        <v>-1041.901516080746</v>
+        <v>-990.5775156374804</v>
       </c>
       <c r="J16">
-        <v>1316.437020961682</v>
+        <v>1315.275896707956</v>
       </c>
       <c r="K16">
-        <v>3002.40588429955</v>
+        <v>2892.18390461597</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -996,22 +996,22 @@
         <v>167.142</v>
       </c>
       <c r="F17">
-        <v>82.81103516985333</v>
+        <v>86.75529342895848</v>
       </c>
       <c r="G17">
-        <v>31.20336207634672</v>
+        <v>30.51108905721451</v>
       </c>
       <c r="H17">
-        <v>1460.037366748812</v>
+        <v>1423.094252501001</v>
       </c>
       <c r="I17">
-        <v>-931.5027276979826</v>
+        <v>-1005.350783377269</v>
       </c>
       <c r="J17">
-        <v>1239.485238041777</v>
+        <v>1251.531669178436</v>
       </c>
       <c r="K17">
-        <v>3076.491615893753</v>
+        <v>3048.504684825315</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -1031,22 +1031,22 @@
         <v>168.142</v>
       </c>
       <c r="F18">
-        <v>78.01059327071688</v>
+        <v>83.20665721427396</v>
       </c>
       <c r="G18">
-        <v>50.19084492812416</v>
+        <v>46.27445303864471</v>
       </c>
       <c r="H18">
-        <v>1562.12162897076</v>
+        <v>1501.445611384545</v>
       </c>
       <c r="I18">
-        <v>-937.312107689474</v>
+        <v>-958.8451016714068</v>
       </c>
       <c r="J18">
-        <v>1163.737618308918</v>
+        <v>1260.837291632176</v>
       </c>
       <c r="K18">
-        <v>3121.025940169053</v>
+        <v>3132.094136470914</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -1066,22 +1066,22 @@
         <v>169.142</v>
       </c>
       <c r="F19">
-        <v>73.98284035000187</v>
+        <v>78.55269791341659</v>
       </c>
       <c r="G19">
-        <v>63.28589766098739</v>
+        <v>65.74363050196375</v>
       </c>
       <c r="H19">
-        <v>1571.086654615431</v>
+        <v>1493.90426494813</v>
       </c>
       <c r="I19">
-        <v>-841.4990020241872</v>
+        <v>-928.0318563149889</v>
       </c>
       <c r="J19">
-        <v>1207.597841640937</v>
+        <v>1169.823877593657</v>
       </c>
       <c r="K19">
-        <v>2975.807364501013</v>
+        <v>2976.256979941646</v>
       </c>
     </row>
     <row r="20" spans="1:11">
@@ -1101,22 +1101,22 @@
         <v>170.142</v>
       </c>
       <c r="F20">
-        <v>74.98518826619194</v>
+        <v>74.60799746827576</v>
       </c>
       <c r="G20">
-        <v>82.99622814607801</v>
+        <v>84.1069150985961</v>
       </c>
       <c r="H20">
-        <v>1627.763361127754</v>
+        <v>1606.109625744201</v>
       </c>
       <c r="I20">
-        <v>-848.5420845365458</v>
+        <v>-833.8299648536677</v>
       </c>
       <c r="J20">
-        <v>1068.674487945469</v>
+        <v>1085.617653260802</v>
       </c>
       <c r="K20">
-        <v>3100.628532134377</v>
+        <v>3071.12053505351</v>
       </c>
     </row>
     <row r="21" spans="1:11">
@@ -1136,22 +1136,22 @@
         <v>171.142</v>
       </c>
       <c r="F21">
-        <v>73.84864199965092</v>
+        <v>73.20158387078095</v>
       </c>
       <c r="G21">
-        <v>94.33812858094927</v>
+        <v>99.22650215616829</v>
       </c>
       <c r="H21">
-        <v>1639.618500269743</v>
+        <v>1610.146643473178</v>
       </c>
       <c r="I21">
-        <v>-799.1318858557673</v>
+        <v>-772.2091971848052</v>
       </c>
       <c r="J21">
-        <v>1081.174510770397</v>
+        <v>1054.112366751171</v>
       </c>
       <c r="K21">
-        <v>3231.665298115146</v>
+        <v>3335.506777061465</v>
       </c>
     </row>
     <row r="22" spans="1:11">
@@ -1171,22 +1171,22 @@
         <v>172.142</v>
       </c>
       <c r="F22">
-        <v>70.36160632167666</v>
+        <v>68.59466689550263</v>
       </c>
       <c r="G22">
-        <v>116.7281553297389</v>
+        <v>116.9533943295288</v>
       </c>
       <c r="H22">
-        <v>1634.887478442639</v>
+        <v>1553.73985494723</v>
       </c>
       <c r="I22">
-        <v>-754.6416685195796</v>
+        <v>-715.9590519828296</v>
       </c>
       <c r="J22">
-        <v>1074.067052476668</v>
+        <v>993.4802535585929</v>
       </c>
       <c r="K22">
-        <v>3259.313691878482</v>
+        <v>3198.884663811494</v>
       </c>
     </row>
     <row r="23" spans="1:11">
@@ -1206,22 +1206,22 @@
         <v>173.142</v>
       </c>
       <c r="F23">
-        <v>63.56499083025533</v>
+        <v>67.52805864375941</v>
       </c>
       <c r="G23">
-        <v>128.5971084092111</v>
+        <v>131.0129462336412</v>
       </c>
       <c r="H23">
-        <v>1709.383729566794</v>
+        <v>1708.671884861674</v>
       </c>
       <c r="I23">
-        <v>-679.85186831698</v>
+        <v>-695.8635463525554</v>
       </c>
       <c r="J23">
-        <v>958.9970333817414</v>
+        <v>1006.812384811749</v>
       </c>
       <c r="K23">
-        <v>3280.665771924774</v>
+        <v>3257.62849641254</v>
       </c>
     </row>
     <row r="24" spans="1:11">
@@ -1241,22 +1241,22 @@
         <v>174.142</v>
       </c>
       <c r="F24">
-        <v>61.11725910386952</v>
+        <v>61.69479349828905</v>
       </c>
       <c r="G24">
-        <v>148.3287359151092</v>
+        <v>148.7388982345971</v>
       </c>
       <c r="H24">
-        <v>1705.867436632478</v>
+        <v>1683.902862750882</v>
       </c>
       <c r="I24">
-        <v>-629.1052434645984</v>
+        <v>-647.5245453560091</v>
       </c>
       <c r="J24">
-        <v>961.1172415556829</v>
+        <v>927.7169416355277</v>
       </c>
       <c r="K24">
-        <v>3058.731267163549</v>
+        <v>3179.750351425701</v>
       </c>
     </row>
     <row r="25" spans="1:11">
@@ -1276,22 +1276,22 @@
         <v>175.142</v>
       </c>
       <c r="F25">
-        <v>63.64335143825597</v>
+        <v>59.74591084345504</v>
       </c>
       <c r="G25">
-        <v>172.119369645645</v>
+        <v>169.193699022888</v>
       </c>
       <c r="H25">
-        <v>1625.730745976551</v>
+        <v>1704.265534585747</v>
       </c>
       <c r="I25">
-        <v>-582.792983950668</v>
+        <v>-573.5585844046494</v>
       </c>
       <c r="J25">
-        <v>879.8225693444507</v>
+        <v>846.1556604868634</v>
       </c>
       <c r="K25">
-        <v>3232.980328760747</v>
+        <v>3087.575535160773</v>
       </c>
     </row>
     <row r="26" spans="1:11">
@@ -1311,22 +1311,22 @@
         <v>176.142</v>
       </c>
       <c r="F26">
-        <v>57.78897419463443</v>
+        <v>57.4418913823407</v>
       </c>
       <c r="G26">
-        <v>177.790378656122</v>
+        <v>182.3090408605835</v>
       </c>
       <c r="H26">
-        <v>1764.73811973628</v>
+        <v>1754.428168833828</v>
       </c>
       <c r="I26">
-        <v>-548.9982855362593</v>
+        <v>-552.1428058141056</v>
       </c>
       <c r="J26">
-        <v>871.719903261638</v>
+        <v>802.7021949810346</v>
       </c>
       <c r="K26">
-        <v>3186.755222040692</v>
+        <v>3084.497188003696</v>
       </c>
     </row>
     <row r="27" spans="1:11">
@@ -1346,22 +1346,22 @@
         <v>177.142</v>
       </c>
       <c r="F27">
-        <v>55.68636202371859</v>
+        <v>59.84312737294685</v>
       </c>
       <c r="G27">
-        <v>199.1296643390667</v>
+        <v>196.1939305540715</v>
       </c>
       <c r="H27">
-        <v>1753.375962386575</v>
+        <v>1760.188789567251</v>
       </c>
       <c r="I27">
-        <v>-497.6237158885902</v>
+        <v>-500.4040584192113</v>
       </c>
       <c r="J27">
-        <v>815.6560960768004</v>
+        <v>750.7231135284062</v>
       </c>
       <c r="K27">
-        <v>2937.529072069024</v>
+        <v>3017.274418325201</v>
       </c>
     </row>
     <row r="28" spans="1:11">
@@ -1381,22 +1381,22 @@
         <v>178.142</v>
       </c>
       <c r="F28">
-        <v>56.72262868617417</v>
+        <v>53.6790502319791</v>
       </c>
       <c r="G28">
-        <v>213.89858836817</v>
+        <v>208.5404261776304</v>
       </c>
       <c r="H28">
-        <v>1654.554393812151</v>
+        <v>1706.004497787507</v>
       </c>
       <c r="I28">
-        <v>-454.8374543336128</v>
+        <v>-419.2564024690439</v>
       </c>
       <c r="J28">
-        <v>709.3433855901332</v>
+        <v>771.6225086513358</v>
       </c>
       <c r="K28">
-        <v>2969.393843582027</v>
+        <v>3084.602508026991</v>
       </c>
     </row>
     <row r="29" spans="1:11">
@@ -1416,22 +1416,22 @@
         <v>179.142</v>
       </c>
       <c r="F29">
-        <v>54.24586301538055</v>
+        <v>56.30615940752378</v>
       </c>
       <c r="G29">
-        <v>223.1553913519216</v>
+        <v>228.8092021465988</v>
       </c>
       <c r="H29">
-        <v>1814.172728272273</v>
+        <v>1690.868829421598</v>
       </c>
       <c r="I29">
-        <v>-380.7993499882019</v>
+        <v>-374.1914172457197</v>
       </c>
       <c r="J29">
-        <v>695.0006375285009</v>
+        <v>661.6256867234304</v>
       </c>
       <c r="K29">
-        <v>2997.118045794645</v>
+        <v>2899.106365259157</v>
       </c>
     </row>
     <row r="30" spans="1:11">
@@ -1451,22 +1451,22 @@
         <v>180.142</v>
       </c>
       <c r="F30">
-        <v>54.42334810812396</v>
+        <v>54.26572621792894</v>
       </c>
       <c r="G30">
-        <v>243.5848153790335</v>
+        <v>251.985121481325</v>
       </c>
       <c r="H30">
-        <v>1749.772423181603</v>
+        <v>1791.569958066312</v>
       </c>
       <c r="I30">
-        <v>-322.5311898926124</v>
+        <v>-330.127116168999</v>
       </c>
       <c r="J30">
-        <v>668.320602394468</v>
+        <v>668.7019803795761</v>
       </c>
       <c r="K30">
-        <v>2838.294523462529</v>
+        <v>2907.210827312841</v>
       </c>
     </row>
     <row r="31" spans="1:11">
@@ -1486,22 +1486,22 @@
         <v>181.142</v>
       </c>
       <c r="F31">
-        <v>50.05608955022109</v>
+        <v>54.50730320387746</v>
       </c>
       <c r="G31">
-        <v>258.1433913205198</v>
+        <v>254.3514569634139</v>
       </c>
       <c r="H31">
-        <v>1847.038386146409</v>
+        <v>1695.608802020302</v>
       </c>
       <c r="I31">
-        <v>-268.101490879441</v>
+        <v>-278.9278680961814</v>
       </c>
       <c r="J31">
-        <v>571.9037288142608</v>
+        <v>604.7932167134752</v>
       </c>
       <c r="K31">
-        <v>2708.428951776108</v>
+        <v>2718.453336990488</v>
       </c>
     </row>
     <row r="32" spans="1:11">
@@ -1521,22 +1521,22 @@
         <v>182.142</v>
       </c>
       <c r="F32">
-        <v>49.52583309542081</v>
+        <v>51.79128198239842</v>
       </c>
       <c r="G32">
-        <v>273.9683468666515</v>
+        <v>285.5915921831283</v>
       </c>
       <c r="H32">
-        <v>1711.875440562856</v>
+        <v>1813.918083688306</v>
       </c>
       <c r="I32">
-        <v>-211.8923729356337</v>
+        <v>-198.2027820012936</v>
       </c>
       <c r="J32">
-        <v>527.3002579463461</v>
+        <v>561.9133179073687</v>
       </c>
       <c r="K32">
-        <v>2454.713901460739</v>
+        <v>2481.236245609019</v>
       </c>
     </row>
     <row r="33" spans="1:11">
@@ -1556,22 +1556,22 @@
         <v>183.142</v>
       </c>
       <c r="F33">
-        <v>49.69239256337506</v>
+        <v>49.88634362165247</v>
       </c>
       <c r="G33">
-        <v>288.0723181938803</v>
+        <v>306.0404216013303</v>
       </c>
       <c r="H33">
-        <v>1760.89103410533</v>
+        <v>1752.601763592951</v>
       </c>
       <c r="I33">
-        <v>-150.5953841166601</v>
+        <v>-150.9257162442399</v>
       </c>
       <c r="J33">
-        <v>502.4853142845233</v>
+        <v>506.0646901108276</v>
       </c>
       <c r="K33">
-        <v>2375.898214643425</v>
+        <v>2462.945138402215</v>
       </c>
     </row>
     <row r="34" spans="1:11">
@@ -1591,22 +1591,22 @@
         <v>184.142</v>
       </c>
       <c r="F34">
-        <v>46.9785392075802</v>
+        <v>50.94373221492076</v>
       </c>
       <c r="G34">
-        <v>298.0698673277888</v>
+        <v>321.3322387345581</v>
       </c>
       <c r="H34">
-        <v>1765.613636583192</v>
+        <v>1778.915043239747</v>
       </c>
       <c r="I34">
-        <v>-85.02282826422024</v>
+        <v>-82.58648992103969</v>
       </c>
       <c r="J34">
-        <v>443.7661501556741</v>
+        <v>446.2298126096831</v>
       </c>
       <c r="K34">
-        <v>2220.215668787961</v>
+        <v>2148.362785763102</v>
       </c>
     </row>
     <row r="35" spans="1:11">
@@ -1626,22 +1626,22 @@
         <v>185.142</v>
       </c>
       <c r="F35">
-        <v>49.95569361401705</v>
+        <v>49.27721031917383</v>
       </c>
       <c r="G35">
-        <v>341.2029872989968</v>
+        <v>340.4491240367906</v>
       </c>
       <c r="H35">
-        <v>1816.801289814549</v>
+        <v>1888.528049470894</v>
       </c>
       <c r="I35">
-        <v>-17.92476082035228</v>
+        <v>-19.6350802362727</v>
       </c>
       <c r="J35">
-        <v>396.7724731801061</v>
+        <v>394.4825998320768</v>
       </c>
       <c r="K35">
-        <v>1983.990145315177</v>
+        <v>1944.694426276616</v>
       </c>
     </row>
     <row r="36" spans="1:11">
@@ -1661,22 +1661,22 @@
         <v>186.142</v>
       </c>
       <c r="F36">
-        <v>48.01113323684743</v>
+        <v>46.86401085291784</v>
       </c>
       <c r="G36">
-        <v>351.5440725463432</v>
+        <v>331.7608421737551</v>
       </c>
       <c r="H36">
-        <v>1747.616444311437</v>
+        <v>1772.612997385429</v>
       </c>
       <c r="I36">
-        <v>48.24663968550647</v>
+        <v>45.27252980623182</v>
       </c>
       <c r="J36">
-        <v>343.7441737139465</v>
+        <v>352.8017947151534</v>
       </c>
       <c r="K36">
-        <v>1877.291705842921</v>
+        <v>1784.838699581577</v>
       </c>
     </row>
     <row r="37" spans="1:11">
@@ -1696,22 +1696,22 @@
         <v>187.142</v>
       </c>
       <c r="F37">
-        <v>47.65990130220322</v>
+        <v>46.91599415672721</v>
       </c>
       <c r="G37">
-        <v>359.2232857220089</v>
+        <v>356.9085270087621</v>
       </c>
       <c r="H37">
-        <v>1796.312006865237</v>
+        <v>1828.628423990516</v>
       </c>
       <c r="I37">
-        <v>111.7079159461069</v>
+        <v>113.1834300846654</v>
       </c>
       <c r="J37">
-        <v>286.4721045144536</v>
+        <v>307.6081523018437</v>
       </c>
       <c r="K37">
-        <v>1687.26035818807</v>
+        <v>1656.322139328961</v>
       </c>
     </row>
     <row r="38" spans="1:11">
@@ -1731,22 +1731,22 @@
         <v>188.142</v>
       </c>
       <c r="F38">
-        <v>46.61982896912562</v>
+        <v>43.67608548089976</v>
       </c>
       <c r="G38">
-        <v>397.4053145539419</v>
+        <v>393.0949830084248</v>
       </c>
       <c r="H38">
-        <v>1876.245226867596</v>
+        <v>1855.052647271284</v>
       </c>
       <c r="I38">
-        <v>183.7388690771615</v>
+        <v>188.1600369244309</v>
       </c>
       <c r="J38">
-        <v>259.5372380632625</v>
+        <v>237.6853092072698</v>
       </c>
       <c r="K38">
-        <v>1440.341821144285</v>
+        <v>1382.582365801983</v>
       </c>
     </row>
     <row r="39" spans="1:11">
@@ -1766,22 +1766,22 @@
         <v>189.142</v>
       </c>
       <c r="F39">
-        <v>46.60457001100103</v>
+        <v>43.17742573893722</v>
       </c>
       <c r="G39">
-        <v>381.5702031270512</v>
+        <v>409.7229648432453</v>
       </c>
       <c r="H39">
-        <v>1781.85308130761</v>
+        <v>1942.536510527151</v>
       </c>
       <c r="I39">
-        <v>243.0780106151348</v>
+        <v>243.163152990935</v>
       </c>
       <c r="J39">
-        <v>206.9185283479374</v>
+        <v>190.6853711615778</v>
       </c>
       <c r="K39">
-        <v>1115.226365544838</v>
+        <v>1120.101861704361</v>
       </c>
     </row>
     <row r="40" spans="1:11">
@@ -1801,22 +1801,22 @@
         <v>190.142</v>
       </c>
       <c r="F40">
-        <v>42.28154557181013</v>
+        <v>42.75978751228647</v>
       </c>
       <c r="G40">
-        <v>410.6244266669094</v>
+        <v>396.8999705015773</v>
       </c>
       <c r="H40">
-        <v>1800.87629038231</v>
+        <v>1796.547209782899</v>
       </c>
       <c r="I40">
-        <v>326.0753587598281</v>
+        <v>334.1825347183659</v>
       </c>
       <c r="J40">
-        <v>147.3516762933081</v>
+        <v>154.7546814560531</v>
       </c>
       <c r="K40">
-        <v>927.5218290966696</v>
+        <v>897.0593291916334</v>
       </c>
     </row>
     <row r="41" spans="1:11">
@@ -1836,22 +1836,22 @@
         <v>191.142</v>
       </c>
       <c r="F41">
-        <v>42.22448960127526</v>
+        <v>43.6303090129915</v>
       </c>
       <c r="G41">
-        <v>446.3656619842871</v>
+        <v>432.4009503535959</v>
       </c>
       <c r="H41">
-        <v>1795.016674723296</v>
+        <v>1880.404104002079</v>
       </c>
       <c r="I41">
-        <v>414.0018164037603</v>
+        <v>399.8117295690652</v>
       </c>
       <c r="J41">
-        <v>103.8592057388257</v>
+        <v>104.0952595487859</v>
       </c>
       <c r="K41">
-        <v>597.019206252384</v>
+        <v>651.2643235045113</v>
       </c>
     </row>
     <row r="42" spans="1:11">
@@ -1871,22 +1871,22 @@
         <v>192.142</v>
       </c>
       <c r="F42">
-        <v>42.30954222745679</v>
+        <v>43.89366893250081</v>
       </c>
       <c r="G42">
-        <v>442.4421648961513</v>
+        <v>429.7754825073557</v>
       </c>
       <c r="H42">
-        <v>1878.76141908352</v>
+        <v>1854.762993032228</v>
       </c>
       <c r="I42">
-        <v>460.9148742984389</v>
+        <v>495.1419404349044</v>
       </c>
       <c r="J42">
-        <v>53.75570747762113</v>
+        <v>51.50031473539075</v>
       </c>
       <c r="K42">
-        <v>341.2545861952567</v>
+        <v>327.2306772239237</v>
       </c>
     </row>
     <row r="43" spans="1:11">
@@ -1906,22 +1906,22 @@
         <v>193.142</v>
       </c>
       <c r="F43">
-        <v>41.32454452608026</v>
+        <v>40.89581650847554</v>
       </c>
       <c r="G43">
-        <v>443.5301334103896</v>
+        <v>443.7147020273021</v>
       </c>
       <c r="H43">
-        <v>1840.422027225526</v>
+        <v>1813.226941213999</v>
       </c>
       <c r="I43">
-        <v>530.1782669300206</v>
+        <v>530.8347897249756</v>
       </c>
       <c r="J43">
-        <v>5.128548505799813</v>
+        <v>5.231430022393538</v>
       </c>
       <c r="K43">
-        <v>32.52807939808802</v>
+        <v>33.63933869321074</v>
       </c>
     </row>
     <row r="44" spans="1:11">
@@ -1941,22 +1941,22 @@
         <v>194.142</v>
       </c>
       <c r="F44">
-        <v>42.22043091003064</v>
+        <v>42.4447970024283</v>
       </c>
       <c r="G44">
-        <v>460.2626768468692</v>
+        <v>500.5738989301168</v>
       </c>
       <c r="H44">
-        <v>1819.261610703572</v>
+        <v>1989.194432092989</v>
       </c>
       <c r="I44">
-        <v>637.3569263291281</v>
+        <v>639.1508734311335</v>
       </c>
       <c r="J44">
-        <v>-42.58549984782177</v>
+        <v>-43.57351530364075</v>
       </c>
       <c r="K44">
-        <v>-283.1793669344525</v>
+        <v>-277.5923476026378</v>
       </c>
     </row>
     <row r="45" spans="1:11">
@@ -1976,22 +1976,22 @@
         <v>195.142</v>
       </c>
       <c r="F45">
-        <v>40.8676307865621</v>
+        <v>40.14958854459981</v>
       </c>
       <c r="G45">
-        <v>516.1669754474592</v>
+        <v>489.5997329197003</v>
       </c>
       <c r="H45">
-        <v>1908.692784885886</v>
+        <v>1907.621201085572</v>
       </c>
       <c r="I45">
-        <v>685.0264715259518</v>
+        <v>685.2696026169367</v>
       </c>
       <c r="J45">
-        <v>-90.7378858809636</v>
+        <v>-91.70673008855371</v>
       </c>
       <c r="K45">
-        <v>-645.0518602802373</v>
+        <v>-603.7364835332738</v>
       </c>
     </row>
     <row r="46" spans="1:11">
@@ -2011,22 +2011,22 @@
         <v>196.142</v>
       </c>
       <c r="F46">
-        <v>39.41467752975708</v>
+        <v>41.83989787768658</v>
       </c>
       <c r="G46">
-        <v>510.1698241518404</v>
+        <v>512.3687112325329</v>
       </c>
       <c r="H46">
-        <v>1966.867940902812</v>
+        <v>1926.7898774312</v>
       </c>
       <c r="I46">
-        <v>830.4934980644811</v>
+        <v>806.3129229957116</v>
       </c>
       <c r="J46">
-        <v>-141.9058051678656</v>
+        <v>-136.6600248322968</v>
       </c>
       <c r="K46">
-        <v>-1008.184973179973</v>
+        <v>-939.3717280123972</v>
       </c>
     </row>
     <row r="47" spans="1:11">
@@ -2046,22 +2046,22 @@
         <v>197.142</v>
       </c>
       <c r="F47">
-        <v>40.72145504753151</v>
+        <v>40.96697431249374</v>
       </c>
       <c r="G47">
-        <v>501.2662403597179</v>
+        <v>526.2281332451631</v>
       </c>
       <c r="H47">
-        <v>1965.065037491794</v>
+        <v>1927.837737599748</v>
       </c>
       <c r="I47">
-        <v>914.8467289168874</v>
+        <v>873.790181382078</v>
       </c>
       <c r="J47">
-        <v>-194.9983907074926</v>
+        <v>-186.166084312828</v>
       </c>
       <c r="K47">
-        <v>-1324.070522067404</v>
+        <v>-1262.719167101267</v>
       </c>
     </row>
     <row r="48" spans="1:11">
@@ -2081,22 +2081,22 @@
         <v>198.142</v>
       </c>
       <c r="F48">
-        <v>38.33045575815375</v>
+        <v>40.46496695116949</v>
       </c>
       <c r="G48">
-        <v>555.4625035094488</v>
+        <v>553.7498322706031</v>
       </c>
       <c r="H48">
-        <v>1977.137483573977</v>
+        <v>1894.55472967925</v>
       </c>
       <c r="I48">
-        <v>967.4182028181059</v>
+        <v>962.6988453273201</v>
       </c>
       <c r="J48">
-        <v>-243.8900406428963</v>
+        <v>-233.4548840933268</v>
       </c>
       <c r="K48">
-        <v>-1710.949259397047</v>
+        <v>-1635.519155916013</v>
       </c>
     </row>
     <row r="49" spans="1:11">
@@ -2116,22 +2116,22 @@
         <v>199.142</v>
       </c>
       <c r="F49">
-        <v>40.64545247173834</v>
+        <v>39.42654873524907</v>
       </c>
       <c r="G49">
-        <v>543.2804186422389</v>
+        <v>552.9890297737846</v>
       </c>
       <c r="H49">
-        <v>1862.558539118539</v>
+        <v>1917.50356016427</v>
       </c>
       <c r="I49">
-        <v>1050.727625264234</v>
+        <v>1022.491870984885</v>
       </c>
       <c r="J49">
-        <v>-290.6532276591989</v>
+        <v>-296.771898834239</v>
       </c>
       <c r="K49">
-        <v>-2119.558986013301</v>
+        <v>-2129.29470048837</v>
       </c>
     </row>
     <row r="50" spans="1:11">
@@ -2151,22 +2151,22 @@
         <v>200.142</v>
       </c>
       <c r="F50">
-        <v>40.29664839937588</v>
+        <v>39.73438443765962</v>
       </c>
       <c r="G50">
-        <v>584.3491806927096</v>
+        <v>589.0948701928206</v>
       </c>
       <c r="H50">
-        <v>1981.721442709275</v>
+        <v>1985.225393819661</v>
       </c>
       <c r="I50">
-        <v>1179.216533529012</v>
+        <v>1198.790375731427</v>
       </c>
       <c r="J50">
-        <v>-323.7598518707228</v>
+        <v>-349.9944234721218</v>
       </c>
       <c r="K50">
-        <v>-2602.289209565176</v>
+        <v>-2451.30989529113</v>
       </c>
     </row>
     <row r="51" spans="1:11">
@@ -2186,22 +2186,22 @@
         <v>201.142</v>
       </c>
       <c r="F51">
-        <v>37.73016654220022</v>
+        <v>37.26937473538566</v>
       </c>
       <c r="G51">
-        <v>580.4834589644782</v>
+        <v>570.4539987547311</v>
       </c>
       <c r="H51">
-        <v>2013.11542901538</v>
+        <v>1938.131277284397</v>
       </c>
       <c r="I51">
-        <v>1213.784897425232</v>
+        <v>1302.997520354662</v>
       </c>
       <c r="J51">
-        <v>-386.7838900219379</v>
+        <v>-386.4082957336203</v>
       </c>
       <c r="K51">
-        <v>-2805.182374634678</v>
+        <v>-3000.182332263179</v>
       </c>
     </row>
     <row r="52" spans="1:11">
@@ -2221,22 +2221,22 @@
         <v>202.142</v>
       </c>
       <c r="F52">
-        <v>38.52362727158293</v>
+        <v>38.86208868259759</v>
       </c>
       <c r="G52">
-        <v>587.1682307632743</v>
+        <v>632.1228778568503</v>
       </c>
       <c r="H52">
-        <v>1875.813624919474</v>
+        <v>2035.989755308501</v>
       </c>
       <c r="I52">
-        <v>1356.906506489845</v>
+        <v>1381.681484811338</v>
       </c>
       <c r="J52">
-        <v>-445.0978980533433</v>
+        <v>-444.3276694185608</v>
       </c>
       <c r="K52">
-        <v>-3363.44656744236</v>
+        <v>-3465.583084881481</v>
       </c>
     </row>
     <row r="53" spans="1:11">
@@ -2256,22 +2256,22 @@
         <v>203.142</v>
       </c>
       <c r="F53">
-        <v>38.3972081507728</v>
+        <v>37.17838453947891</v>
       </c>
       <c r="G53">
-        <v>650.5600412491622</v>
+        <v>630.9423899650233</v>
       </c>
       <c r="H53">
-        <v>2045.292065501323</v>
+        <v>2028.650892029974</v>
       </c>
       <c r="I53">
-        <v>1470.68525328478</v>
+        <v>1433.06954049862</v>
       </c>
       <c r="J53">
-        <v>-482.679949835815</v>
+        <v>-496.1112894082975</v>
       </c>
       <c r="K53">
-        <v>-3788.935754836413</v>
+        <v>-3965.957908602971</v>
       </c>
     </row>
     <row r="54" spans="1:11">
@@ -2291,22 +2291,22 @@
         <v>204.142</v>
       </c>
       <c r="F54">
-        <v>35.59812132331196</v>
+        <v>37.59181851025042</v>
       </c>
       <c r="G54">
-        <v>671.7983919815275</v>
+        <v>637.8567750730164</v>
       </c>
       <c r="H54">
-        <v>2000.3571891969</v>
+        <v>1954.985447691279</v>
       </c>
       <c r="I54">
-        <v>1598.795947020838</v>
+        <v>1570.774722174158</v>
       </c>
       <c r="J54">
-        <v>-509.9478357188242</v>
+        <v>-511.7551190167476</v>
       </c>
       <c r="K54">
-        <v>-4437.62172185041</v>
+        <v>-4293.166007590429</v>
       </c>
     </row>
   </sheetData>
